--- a/Python_Mail/Tasks/Python3/Task 2 - Append Excel Operation/sheetb.xlsx
+++ b/Python_Mail/Tasks/Python3/Task 2 - Append Excel Operation/sheetb.xlsx
@@ -451,7 +451,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMJ245"/>
+  <dimension ref="A1:AMD245"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -466,11 +466,11 @@
     <col min="4" max="4" width="10.42578125" style="2" customWidth="1"/>
     <col min="5" max="6" width="8.5703125" style="2" customWidth="1"/>
     <col min="7" max="7" width="11.140625" style="2" customWidth="1"/>
-    <col min="8" max="1021" width="8.5703125" style="2" customWidth="1"/>
-    <col min="1022" max="1024" width="9.140625" style="2" customWidth="1"/>
+    <col min="8" max="1015" width="8.5703125" style="2" customWidth="1"/>
+    <col min="1016" max="1018" width="9.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,9 +492,8 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1"/>
-    </row>
-    <row r="2" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43831</v>
       </c>
@@ -517,9 +516,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>58.410000000000004</v>
       </c>
-      <c r="H2"/>
-    </row>
-    <row r="3" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43834</v>
       </c>
@@ -542,9 +540,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>303.63</v>
       </c>
-      <c r="H3"/>
-    </row>
-    <row r="4" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43837</v>
       </c>
@@ -567,9 +564,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>108.46000000000001</v>
       </c>
-      <c r="H4"/>
-    </row>
-    <row r="5" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43840</v>
       </c>
@@ -592,9 +588,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>153.34</v>
       </c>
-      <c r="H5"/>
-    </row>
-    <row r="6" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43843</v>
       </c>
@@ -617,9 +612,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>82.84</v>
       </c>
-      <c r="H6"/>
-    </row>
-    <row r="7" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43846</v>
       </c>
@@ -642,9 +636,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>95.58</v>
       </c>
-      <c r="H7"/>
-    </row>
-    <row r="8" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43849</v>
       </c>
@@ -667,9 +660,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>520.01</v>
       </c>
-      <c r="H8"/>
-    </row>
-    <row r="9" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43852</v>
       </c>
@@ -692,9 +684,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>90.27</v>
       </c>
-      <c r="H9"/>
-    </row>
-    <row r="10" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43855</v>
       </c>
@@ -717,9 +708,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>177</v>
       </c>
-      <c r="H10"/>
-    </row>
-    <row r="11" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43858</v>
       </c>
@@ -742,9 +732,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>37.800000000000004</v>
       </c>
-      <c r="H11"/>
-    </row>
-    <row r="12" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43861</v>
       </c>
@@ -767,9 +756,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>78.48</v>
       </c>
-      <c r="H12"/>
-    </row>
-    <row r="13" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43864</v>
       </c>
@@ -792,9 +780,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>57.970000000000006</v>
       </c>
-      <c r="H13"/>
-    </row>
-    <row r="14" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43867</v>
       </c>
@@ -817,9 +804,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>97.72</v>
       </c>
-      <c r="H14"/>
-    </row>
-    <row r="15" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43870</v>
       </c>
@@ -842,9 +828,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>77.88</v>
       </c>
-      <c r="H15"/>
-    </row>
-    <row r="16" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43873</v>
       </c>
@@ -867,9 +852,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>40.71</v>
       </c>
-      <c r="H16"/>
-    </row>
-    <row r="17" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43876</v>
       </c>
@@ -892,9 +876,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>36.450000000000003</v>
       </c>
-      <c r="H17"/>
-    </row>
-    <row r="18" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43879</v>
       </c>
@@ -917,9 +900,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>93.740000000000009</v>
       </c>
-      <c r="H18"/>
-    </row>
-    <row r="19" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43882</v>
       </c>
@@ -942,9 +924,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>349.32</v>
       </c>
-      <c r="H19"/>
-    </row>
-    <row r="20" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43885</v>
       </c>
@@ -967,9 +948,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>78.540000000000006</v>
       </c>
-      <c r="H20"/>
-    </row>
-    <row r="21" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43888</v>
       </c>
@@ -992,9 +972,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>93.72</v>
       </c>
-      <c r="H21"/>
-    </row>
-    <row r="22" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43892</v>
       </c>
@@ -1017,9 +996,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>158.95000000000002</v>
       </c>
-      <c r="H22"/>
-    </row>
-    <row r="23" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43895</v>
       </c>
@@ -1042,9 +1020,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>85.199999999999989</v>
       </c>
-      <c r="H23"/>
-    </row>
-    <row r="24" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43898</v>
       </c>
@@ -1067,9 +1044,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>107.97</v>
       </c>
-      <c r="H24"/>
-    </row>
-    <row r="25" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43901</v>
       </c>
@@ -1092,9 +1068,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>139.60000000000002</v>
       </c>
-      <c r="H25"/>
-    </row>
-    <row r="26" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43904</v>
       </c>
@@ -1117,9 +1092,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>160.82000000000002</v>
       </c>
-      <c r="H26"/>
-    </row>
-    <row r="27" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43907</v>
       </c>
@@ -1142,9 +1116,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>67.260000000000005</v>
       </c>
-      <c r="H27"/>
-    </row>
-    <row r="28" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43910</v>
       </c>
@@ -1167,9 +1140,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>114.24</v>
       </c>
-      <c r="H28"/>
-    </row>
-    <row r="29" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43913</v>
       </c>
@@ -1192,9 +1164,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>72.930000000000007</v>
       </c>
-      <c r="H29"/>
-    </row>
-    <row r="30" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43916</v>
       </c>
@@ -1217,9 +1188,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>192.61</v>
       </c>
-      <c r="H30"/>
-    </row>
-    <row r="31" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43919</v>
       </c>
@@ -1242,9 +1212,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>548.12</v>
       </c>
-      <c r="H31"/>
-    </row>
-    <row r="32" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43922</v>
       </c>
@@ -1267,9 +1236,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>102.66</v>
       </c>
-      <c r="H32"/>
-    </row>
-    <row r="33" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43925</v>
       </c>
@@ -1292,9 +1260,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>114.24</v>
       </c>
-      <c r="H33"/>
-    </row>
-    <row r="34" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43928</v>
       </c>
@@ -1317,9 +1284,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>161.07</v>
       </c>
-      <c r="H34"/>
-    </row>
-    <row r="35" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43931</v>
       </c>
@@ -1342,9 +1308,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>80.27000000000001</v>
       </c>
-      <c r="H35"/>
-    </row>
-    <row r="36" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43934</v>
       </c>
@@ -1367,9 +1332,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>47.04</v>
       </c>
-      <c r="H36"/>
-    </row>
-    <row r="37" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43937</v>
       </c>
@@ -1392,9 +1356,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>84.960000000000008</v>
       </c>
-      <c r="H37"/>
-    </row>
-    <row r="38" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43940</v>
       </c>
@@ -1417,9 +1380,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>225.12</v>
       </c>
-      <c r="H38"/>
-    </row>
-    <row r="39" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43943</v>
       </c>
@@ -1442,9 +1404,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>35.4</v>
       </c>
-      <c r="H39"/>
-    </row>
-    <row r="40" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43946</v>
       </c>
@@ -1467,9 +1428,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>93.81</v>
       </c>
-      <c r="H40"/>
-    </row>
-    <row r="41" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43949</v>
       </c>
@@ -1492,9 +1452,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>107.52</v>
       </c>
-      <c r="H41"/>
-    </row>
-    <row r="42" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43952</v>
       </c>
@@ -1517,9 +1476,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>117.81</v>
       </c>
-      <c r="H42"/>
-    </row>
-    <row r="43" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43955</v>
       </c>
@@ -1542,9 +1500,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>196.35000000000002</v>
       </c>
-      <c r="H43"/>
-    </row>
-    <row r="44" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43958</v>
       </c>
@@ -1567,9 +1524,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>391.91999999999996</v>
       </c>
-      <c r="H44"/>
-    </row>
-    <row r="45" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43961</v>
       </c>
@@ -1592,9 +1548,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>44.25</v>
       </c>
-      <c r="H45"/>
-    </row>
-    <row r="46" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43964</v>
       </c>
@@ -1617,9 +1572,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>73.290000000000006</v>
       </c>
-      <c r="H46"/>
-    </row>
-    <row r="47" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43967</v>
       </c>
@@ -1642,9 +1596,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>107.97</v>
       </c>
-      <c r="H47"/>
-    </row>
-    <row r="48" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43970</v>
       </c>
@@ -1667,9 +1620,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>82.32</v>
       </c>
-      <c r="H48"/>
-    </row>
-    <row r="49" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43973</v>
       </c>
@@ -1692,9 +1644,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>102.85000000000001</v>
       </c>
-      <c r="H49"/>
-    </row>
-    <row r="50" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43976</v>
       </c>
@@ -1717,9 +1668,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>58.860000000000007</v>
       </c>
-      <c r="H50"/>
-    </row>
-    <row r="51" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43979</v>
       </c>
@@ -1742,9 +1692,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>102.66</v>
       </c>
-      <c r="H51"/>
-    </row>
-    <row r="52" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43982</v>
       </c>
@@ -1767,9 +1716,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>115.17</v>
       </c>
-      <c r="H52"/>
-    </row>
-    <row r="53" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>43985</v>
       </c>
@@ -1792,9 +1740,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>817.92</v>
       </c>
-      <c r="H53"/>
-    </row>
-    <row r="54" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>43988</v>
       </c>
@@ -1817,9 +1764,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>142.12</v>
       </c>
-      <c r="H54"/>
-    </row>
-    <row r="55" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43991</v>
       </c>
@@ -1842,9 +1788,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>74.34</v>
       </c>
-      <c r="H55"/>
-    </row>
-    <row r="56" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43994</v>
       </c>
@@ -1867,9 +1812,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>69.800000000000011</v>
       </c>
-      <c r="H56"/>
-    </row>
-    <row r="57" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>43997</v>
       </c>
@@ -1892,9 +1836,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>132.75</v>
       </c>
-      <c r="H57"/>
-    </row>
-    <row r="58" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>44000</v>
       </c>
@@ -1917,9 +1860,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>132.62</v>
       </c>
-      <c r="H58"/>
-    </row>
-    <row r="59" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>44003</v>
       </c>
@@ -1942,9 +1884,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>541.62</v>
       </c>
-      <c r="H59"/>
-    </row>
-    <row r="60" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>44006</v>
       </c>
@@ -1967,9 +1908,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>47.04</v>
       </c>
-      <c r="H60"/>
-    </row>
-    <row r="61" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>44009</v>
       </c>
@@ -1992,9 +1932,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>205.70000000000002</v>
       </c>
-      <c r="H61"/>
-    </row>
-    <row r="62" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>44012</v>
       </c>
@@ -2017,9 +1956,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>144.84</v>
       </c>
-      <c r="H62"/>
-    </row>
-    <row r="63" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>44015</v>
       </c>
@@ -2042,9 +1980,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>92.04</v>
       </c>
-      <c r="H63"/>
-    </row>
-    <row r="64" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>44018</v>
       </c>
@@ -2067,9 +2004,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>97.72</v>
       </c>
-      <c r="H64"/>
-    </row>
-    <row r="65" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>44021</v>
       </c>
@@ -2092,9 +2028,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>240.72</v>
       </c>
-      <c r="H65"/>
-    </row>
-    <row r="66" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>44024</v>
       </c>
@@ -2117,9 +2052,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>146.58000000000001</v>
       </c>
-      <c r="H66"/>
-    </row>
-    <row r="67" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>44027</v>
       </c>
@@ -2142,9 +2076,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>140.25</v>
       </c>
-      <c r="H67"/>
-    </row>
-    <row r="68" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>44030</v>
       </c>
@@ -2167,9 +2100,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>134.64000000000001</v>
       </c>
-      <c r="H68"/>
-    </row>
-    <row r="69" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>44033</v>
       </c>
@@ -2192,9 +2124,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>159.04</v>
       </c>
-      <c r="H69"/>
-    </row>
-    <row r="70" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>44036</v>
       </c>
@@ -2217,9 +2148,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>95.37</v>
       </c>
-      <c r="H70"/>
-    </row>
-    <row r="71" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>44039</v>
       </c>
@@ -2242,9 +2172,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>52.08</v>
       </c>
-      <c r="H71"/>
-    </row>
-    <row r="72" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>44042</v>
       </c>
@@ -2267,9 +2196,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>104.72</v>
       </c>
-      <c r="H72"/>
-    </row>
-    <row r="73" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>44045</v>
       </c>
@@ -2292,9 +2220,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>389.08</v>
       </c>
-      <c r="H73"/>
-    </row>
-    <row r="74" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>44048</v>
       </c>
@@ -2317,9 +2244,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>200.09</v>
       </c>
-      <c r="H74"/>
-    </row>
-    <row r="75" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>44051</v>
       </c>
@@ -2342,9 +2268,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>42.480000000000004</v>
       </c>
-      <c r="H75"/>
-    </row>
-    <row r="76" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>44054</v>
       </c>
@@ -2367,9 +2292,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>104.7</v>
       </c>
-      <c r="H76"/>
-    </row>
-    <row r="77" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>44057</v>
       </c>
@@ -2392,9 +2316,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>130.9</v>
       </c>
-      <c r="H77"/>
-    </row>
-    <row r="78" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>44060</v>
       </c>
@@ -2417,9 +2340,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>67.58</v>
       </c>
-      <c r="H78"/>
-    </row>
-    <row r="79" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>44063</v>
       </c>
@@ -2442,9 +2364,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>192.93</v>
       </c>
-      <c r="H79"/>
-    </row>
-    <row r="80" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>44066</v>
       </c>
@@ -2467,9 +2388,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>73.290000000000006</v>
       </c>
-      <c r="H80"/>
-    </row>
-    <row r="81" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>44069</v>
       </c>
@@ -2492,9 +2412,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>149.60000000000002</v>
       </c>
-      <c r="H81"/>
-    </row>
-    <row r="82" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>44072</v>
       </c>
@@ -2517,9 +2436,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>140.25</v>
       </c>
-      <c r="H82"/>
-    </row>
-    <row r="83" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>44075</v>
       </c>
@@ -2542,9 +2460,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>210.16</v>
       </c>
-      <c r="H83"/>
-    </row>
-    <row r="84" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>44078</v>
       </c>
@@ -2567,9 +2484,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>79.650000000000006</v>
       </c>
-      <c r="H84"/>
-    </row>
-    <row r="85" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>44081</v>
       </c>
@@ -2592,9 +2508,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>61.040000000000006</v>
       </c>
-      <c r="H85"/>
-    </row>
-    <row r="86" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>44084</v>
       </c>
@@ -2617,9 +2532,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>253.11</v>
       </c>
-      <c r="H86"/>
-    </row>
-    <row r="87" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>44087</v>
       </c>
@@ -2642,9 +2556,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>85.05</v>
       </c>
-      <c r="H87"/>
-    </row>
-    <row r="88" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>44090</v>
       </c>
@@ -2667,9 +2580,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>235.41</v>
       </c>
-      <c r="H88"/>
-    </row>
-    <row r="89" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>44093</v>
       </c>
@@ -2692,9 +2604,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>239.8</v>
       </c>
-      <c r="H89"/>
-    </row>
-    <row r="90" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>44096</v>
       </c>
@@ -2717,9 +2628,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>121.55000000000001</v>
       </c>
-      <c r="H90"/>
-    </row>
-    <row r="91" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>44099</v>
       </c>
@@ -2742,9 +2652,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>61.71</v>
       </c>
-      <c r="H91"/>
-    </row>
-    <row r="92" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>44102</v>
       </c>
@@ -2767,9 +2676,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>176.58</v>
       </c>
-      <c r="H92"/>
-    </row>
-    <row r="93" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>44105</v>
       </c>
@@ -2792,9 +2700,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>136.29</v>
       </c>
-      <c r="H93"/>
-    </row>
-    <row r="94" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>44108</v>
       </c>
@@ -2817,9 +2724,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>132.62</v>
       </c>
-      <c r="H94"/>
-    </row>
-    <row r="95" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>44111</v>
       </c>
@@ -2842,9 +2748,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>70.8</v>
       </c>
-      <c r="H95"/>
-    </row>
-    <row r="96" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>44114</v>
       </c>
@@ -2867,9 +2772,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>191.51999999999998</v>
       </c>
-      <c r="H96"/>
-    </row>
-    <row r="97" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>44117</v>
       </c>
@@ -2892,9 +2796,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>488.32000000000005</v>
       </c>
-      <c r="H97"/>
-    </row>
-    <row r="98" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>44120</v>
       </c>
@@ -2917,9 +2820,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>249.57</v>
       </c>
-      <c r="H98"/>
-    </row>
-    <row r="99" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>44123</v>
       </c>
@@ -2942,9 +2844,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>111.68</v>
       </c>
-      <c r="H99"/>
-    </row>
-    <row r="100" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>44126</v>
       </c>
@@ -2967,9 +2868,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>35.4</v>
       </c>
-      <c r="H100"/>
-    </row>
-    <row r="101" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>44129</v>
       </c>
@@ -2992,9 +2892,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>87.2</v>
       </c>
-      <c r="H101"/>
-    </row>
-    <row r="102" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>44132</v>
       </c>
@@ -3017,9 +2916,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>91.63000000000001</v>
       </c>
-      <c r="H102"/>
-    </row>
-    <row r="103" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>44135</v>
       </c>
@@ -3042,9 +2940,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>160.54000000000002</v>
       </c>
-      <c r="H103"/>
-    </row>
-    <row r="104" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>44138</v>
       </c>
@@ -3067,9 +2964,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>69.03</v>
       </c>
-      <c r="H104"/>
-    </row>
-    <row r="105" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>44141</v>
       </c>
@@ -3092,9 +2988,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>104.16</v>
       </c>
-      <c r="H105"/>
-    </row>
-    <row r="106" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>44144</v>
       </c>
@@ -3117,9 +3012,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>159.30000000000001</v>
       </c>
-      <c r="H106"/>
-    </row>
-    <row r="107" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>44147</v>
       </c>
@@ -3142,9 +3036,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>224.54000000000002</v>
       </c>
-      <c r="H107"/>
-    </row>
-    <row r="108" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>44150</v>
       </c>
@@ -3167,9 +3060,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>90.88</v>
       </c>
-      <c r="H108"/>
-    </row>
-    <row r="109" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>44153</v>
       </c>
@@ -3192,9 +3084,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>123.42</v>
       </c>
-      <c r="H109"/>
-    </row>
-    <row r="110" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>44156</v>
       </c>
@@ -3217,9 +3108,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>275.47999999999996</v>
       </c>
-      <c r="H110"/>
-    </row>
-    <row r="111" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>44159</v>
       </c>
@@ -3242,9 +3132,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>53.1</v>
       </c>
-      <c r="H111"/>
-    </row>
-    <row r="112" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>44162</v>
       </c>
@@ -3267,9 +3156,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>48.72</v>
       </c>
-      <c r="H112"/>
-    </row>
-    <row r="113" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>44165</v>
       </c>
@@ -3292,9 +3180,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>162.84</v>
       </c>
-      <c r="H113"/>
-    </row>
-    <row r="114" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>44168</v>
       </c>
@@ -3317,9 +3204,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>303.02000000000004</v>
       </c>
-      <c r="H114"/>
-    </row>
-    <row r="115" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>44171</v>
       </c>
@@ -3342,9 +3228,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>82.36</v>
       </c>
-      <c r="H115"/>
-    </row>
-    <row r="116" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>44174</v>
       </c>
@@ -3367,9 +3252,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>68.099999999999994</v>
       </c>
-      <c r="H116"/>
-    </row>
-    <row r="117" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>44177</v>
       </c>
@@ -3392,9 +3276,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>67.320000000000007</v>
       </c>
-      <c r="H117"/>
-    </row>
-    <row r="118" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>44180</v>
       </c>
@@ -3417,9 +3300,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>143.09</v>
       </c>
-      <c r="H118"/>
-    </row>
-    <row r="119" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>44183</v>
       </c>
@@ -3442,9 +3324,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>77.88</v>
       </c>
-      <c r="H119"/>
-    </row>
-    <row r="120" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>44186</v>
       </c>
@@ -3467,9 +3348,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>48.72</v>
       </c>
-      <c r="H120"/>
-    </row>
-    <row r="121" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>44189</v>
       </c>
@@ -3492,9 +3372,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>516.66000000000008</v>
       </c>
-      <c r="H121"/>
-    </row>
-    <row r="122" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>44192</v>
       </c>
@@ -3517,9 +3396,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>121.55000000000001</v>
       </c>
-      <c r="H122"/>
-    </row>
-    <row r="123" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>44195</v>
       </c>
@@ -3542,9 +3420,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>180.94000000000003</v>
       </c>
-      <c r="H123"/>
-    </row>
-    <row r="124" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>44198</v>
       </c>
@@ -3567,9 +3444,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>69.760000000000005</v>
       </c>
-      <c r="H124"/>
-    </row>
-    <row r="125" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>44201</v>
       </c>
@@ -3592,9 +3468,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>111.51</v>
       </c>
-      <c r="H125"/>
-    </row>
-    <row r="126" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>44204</v>
       </c>
@@ -3617,9 +3492,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>91.35</v>
       </c>
-      <c r="H126"/>
-    </row>
-    <row r="127" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>44207</v>
       </c>
@@ -3642,9 +3516,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>143.99</v>
       </c>
-      <c r="H127"/>
-    </row>
-    <row r="128" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>44210</v>
       </c>
@@ -3667,9 +3540,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>227.2</v>
       </c>
-      <c r="H128"/>
-    </row>
-    <row r="129" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>44213</v>
       </c>
@@ -3692,9 +3564,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>180.54</v>
       </c>
-      <c r="H129"/>
-    </row>
-    <row r="130" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>44216</v>
       </c>
@@ -3717,9 +3588,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>108.19000000000001</v>
       </c>
-      <c r="H130"/>
-    </row>
-    <row r="131" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>44219</v>
       </c>
@@ -3742,9 +3612,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>99.12</v>
       </c>
-      <c r="H131"/>
-    </row>
-    <row r="132" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>44222</v>
       </c>
@@ -3767,9 +3636,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>113.36000000000001</v>
       </c>
-      <c r="H132"/>
-    </row>
-    <row r="133" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>44225</v>
       </c>
@@ -3792,9 +3660,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>90.27</v>
       </c>
-      <c r="H133"/>
-    </row>
-    <row r="134" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>44228</v>
       </c>
@@ -3817,9 +3684,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>40.32</v>
       </c>
-      <c r="H134"/>
-    </row>
-    <row r="135" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>44231</v>
       </c>
@@ -3842,9 +3708,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>126.44000000000001</v>
       </c>
-      <c r="H135"/>
-    </row>
-    <row r="136" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>44234</v>
       </c>
@@ -3867,9 +3732,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>63.580000000000005</v>
       </c>
-      <c r="H136"/>
-    </row>
-    <row r="137" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>44237</v>
       </c>
@@ -3892,9 +3756,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>60.18</v>
       </c>
-      <c r="H137"/>
-    </row>
-    <row r="138" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>44240</v>
       </c>
@@ -3917,9 +3780,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>35.28</v>
       </c>
-      <c r="H138"/>
-    </row>
-    <row r="139" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>44243</v>
       </c>
@@ -3942,9 +3804,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>82.36</v>
       </c>
-      <c r="H139"/>
-    </row>
-    <row r="140" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>44246</v>
       </c>
@@ -3967,9 +3828,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>120.36</v>
       </c>
-      <c r="H140"/>
-    </row>
-    <row r="141" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>44249</v>
       </c>
@@ -3992,9 +3852,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>97.649999999999991</v>
       </c>
-      <c r="H141"/>
-    </row>
-    <row r="142" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>44252</v>
       </c>
@@ -4017,9 +3876,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>65.400000000000006</v>
       </c>
-      <c r="H142"/>
-    </row>
-    <row r="143" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>44255</v>
       </c>
@@ -4042,9 +3900,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>433.84000000000003</v>
       </c>
-      <c r="H143"/>
-    </row>
-    <row r="144" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>44257</v>
       </c>
@@ -4067,9 +3924,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>127.16000000000001</v>
       </c>
-      <c r="H144"/>
-    </row>
-    <row r="145" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>44260</v>
       </c>
@@ -4092,9 +3948,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>275.47999999999996</v>
       </c>
-      <c r="H145"/>
-    </row>
-    <row r="146" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>44263</v>
       </c>
@@ -4117,9 +3972,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>160.82000000000002</v>
       </c>
-      <c r="H146"/>
-    </row>
-    <row r="147" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>44266</v>
       </c>
@@ -4142,9 +3996,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>68.88</v>
       </c>
-      <c r="H147"/>
-    </row>
-    <row r="148" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>44269</v>
       </c>
@@ -4167,9 +4020,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>164.61</v>
       </c>
-      <c r="H148"/>
-    </row>
-    <row r="149" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>44272</v>
       </c>
@@ -4192,9 +4044,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>78.959999999999994</v>
       </c>
-      <c r="H149"/>
-    </row>
-    <row r="150" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>44275</v>
       </c>
@@ -4217,9 +4068,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>182.31</v>
       </c>
-      <c r="H150"/>
-    </row>
-    <row r="151" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>44278</v>
       </c>
@@ -4242,9 +4092,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>55.44</v>
       </c>
-      <c r="H151"/>
-    </row>
-    <row r="152" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>44281</v>
       </c>
@@ -4267,9 +4116,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>106.59</v>
       </c>
-      <c r="H152"/>
-    </row>
-    <row r="153" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>44284</v>
       </c>
@@ -4292,9 +4140,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>184.6</v>
       </c>
-      <c r="H153"/>
-    </row>
-    <row r="154" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>44287</v>
       </c>
@@ -4317,9 +4164,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>208.86</v>
       </c>
-      <c r="H154"/>
-    </row>
-    <row r="155" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>44290</v>
       </c>
@@ -4342,9 +4188,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>78.48</v>
       </c>
-      <c r="H155"/>
-    </row>
-    <row r="156" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>44293</v>
       </c>
@@ -4367,9 +4212,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>349.32</v>
       </c>
-      <c r="H156"/>
-    </row>
-    <row r="157" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>44296</v>
       </c>
@@ -4392,9 +4236,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>159.30000000000001</v>
       </c>
-      <c r="H157"/>
-    </row>
-    <row r="158" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>44299</v>
       </c>
@@ -4417,9 +4260,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>73.290000000000006</v>
       </c>
-      <c r="H158"/>
-    </row>
-    <row r="159" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>44302</v>
       </c>
@@ -4442,9 +4284,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>84.960000000000008</v>
       </c>
-      <c r="H159"/>
-    </row>
-    <row r="160" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>44305</v>
       </c>
@@ -4467,9 +4308,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>40.32</v>
       </c>
-      <c r="H160"/>
-    </row>
-    <row r="161" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>44308</v>
       </c>
@@ -4492,9 +4332,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>125.29</v>
       </c>
-      <c r="H161"/>
-    </row>
-    <row r="162" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>44311</v>
       </c>
@@ -4517,9 +4356,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>50.49</v>
       </c>
-      <c r="H162"/>
-    </row>
-    <row r="163" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>44314</v>
       </c>
@@ -4542,9 +4380,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>366.35999999999996</v>
       </c>
-      <c r="H163"/>
-    </row>
-    <row r="164" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>44317</v>
       </c>
@@ -4567,9 +4404,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>167.86</v>
       </c>
-      <c r="H164"/>
-    </row>
-    <row r="165" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>44320</v>
       </c>
@@ -4592,9 +4428,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>108.46000000000001</v>
       </c>
-      <c r="H165"/>
-    </row>
-    <row r="166" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>44323</v>
       </c>
@@ -4617,9 +4452,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>87.89</v>
       </c>
-      <c r="H166"/>
-    </row>
-    <row r="167" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>44326</v>
       </c>
@@ -4642,9 +4476,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>93.72</v>
       </c>
-      <c r="H167"/>
-    </row>
-    <row r="168" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>44329</v>
       </c>
@@ -4667,9 +4500,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>153.34</v>
       </c>
-      <c r="H168"/>
-    </row>
-    <row r="169" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>44332</v>
       </c>
@@ -4692,9 +4524,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>102.66</v>
       </c>
-      <c r="H169"/>
-    </row>
-    <row r="170" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>44335</v>
       </c>
@@ -4717,9 +4548,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>94.5</v>
       </c>
-      <c r="H170"/>
-    </row>
-    <row r="171" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>44338</v>
       </c>
@@ -4742,9 +4572,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>80.410000000000011</v>
       </c>
-      <c r="H171"/>
-    </row>
-    <row r="172" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>44341</v>
       </c>
@@ -4767,9 +4596,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>148.68</v>
       </c>
-      <c r="H172"/>
-    </row>
-    <row r="173" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>44344</v>
       </c>
@@ -4792,9 +4620,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>78.48</v>
       </c>
-      <c r="H173"/>
-    </row>
-    <row r="174" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>44347</v>
       </c>
@@ -4817,9 +4644,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>124.96</v>
       </c>
-      <c r="H174"/>
-    </row>
-    <row r="175" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>44350</v>
       </c>
@@ -4842,9 +4668,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>50.49</v>
       </c>
-      <c r="H175"/>
-    </row>
-    <row r="176" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>44353</v>
       </c>
@@ -4867,9 +4692,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>340.79999999999995</v>
       </c>
-      <c r="H176"/>
-    </row>
-    <row r="177" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>44356</v>
       </c>
@@ -4892,9 +4716,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>90.740000000000009</v>
       </c>
-      <c r="H177"/>
-    </row>
-    <row r="178" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>44359</v>
       </c>
@@ -4917,9 +4740,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>129.21</v>
       </c>
-      <c r="H178"/>
-    </row>
-    <row r="179" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>44362</v>
       </c>
@@ -4942,9 +4764,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>71.06</v>
       </c>
-      <c r="H179"/>
-    </row>
-    <row r="180" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>44365</v>
       </c>
@@ -4967,9 +4788,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>113.6</v>
       </c>
-      <c r="H180"/>
-    </row>
-    <row r="181" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>44368</v>
       </c>
@@ -4992,9 +4812,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>72.570000000000007</v>
       </c>
-      <c r="H181"/>
-    </row>
-    <row r="182" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>44371</v>
       </c>
@@ -5017,9 +4836,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>61.29</v>
       </c>
-      <c r="H182"/>
-    </row>
-    <row r="183" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>44374</v>
       </c>
@@ -5042,9 +4860,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>71.06</v>
       </c>
-      <c r="H183"/>
-    </row>
-    <row r="184" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>44377</v>
       </c>
@@ -5067,9 +4884,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>118.66000000000001</v>
       </c>
-      <c r="H184"/>
-    </row>
-    <row r="185" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>44380</v>
       </c>
@@ -5092,9 +4908,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>121.55000000000001</v>
       </c>
-      <c r="H185"/>
-    </row>
-    <row r="186" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>44383</v>
       </c>
@@ -5117,9 +4932,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>170.39999999999998</v>
       </c>
-      <c r="H186"/>
-    </row>
-    <row r="187" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>44386</v>
       </c>
@@ -5142,9 +4956,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>80.660000000000011</v>
       </c>
-      <c r="H187"/>
-    </row>
-    <row r="188" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>44389</v>
       </c>
@@ -5167,9 +4980,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>74.800000000000011</v>
       </c>
-      <c r="H188"/>
-    </row>
-    <row r="189" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>44392</v>
       </c>
@@ -5192,9 +5004,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>48.620000000000005</v>
       </c>
-      <c r="H189"/>
-    </row>
-    <row r="190" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>44395</v>
       </c>
@@ -5217,9 +5028,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>49.94</v>
       </c>
-      <c r="H190"/>
-    </row>
-    <row r="191" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>44398</v>
       </c>
@@ -5242,9 +5052,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>59.84</v>
       </c>
-      <c r="H191"/>
-    </row>
-    <row r="192" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>44401</v>
       </c>
@@ -5267,9 +5076,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>80.27000000000001</v>
       </c>
-      <c r="H192"/>
-    </row>
-    <row r="193" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>44404</v>
       </c>
@@ -5292,9 +5100,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>43.6</v>
       </c>
-      <c r="H193"/>
-    </row>
-    <row r="194" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>44407</v>
       </c>
@@ -5317,9 +5124,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>119.68</v>
       </c>
-      <c r="H194"/>
-    </row>
-    <row r="195" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>44410</v>
       </c>
@@ -5342,9 +5148,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>125.67</v>
       </c>
-      <c r="H195"/>
-    </row>
-    <row r="196" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>44413</v>
       </c>
@@ -5367,9 +5172,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>196.20000000000002</v>
       </c>
-      <c r="H196"/>
-    </row>
-    <row r="197" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>44416</v>
       </c>
@@ -5392,9 +5196,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>107.91999999999999</v>
       </c>
-      <c r="H197"/>
-    </row>
-    <row r="198" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>44419</v>
       </c>
@@ -5417,9 +5220,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>97.35</v>
       </c>
-      <c r="H198"/>
-    </row>
-    <row r="199" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>44422</v>
       </c>
@@ -5442,9 +5244,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>69.3</v>
       </c>
-      <c r="H199"/>
-    </row>
-    <row r="200" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>44425</v>
       </c>
@@ -5467,9 +5268,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>60.18</v>
       </c>
-      <c r="H200"/>
-    </row>
-    <row r="201" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="201" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>44428</v>
       </c>
@@ -5492,9 +5292,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>72.930000000000007</v>
       </c>
-      <c r="H201"/>
-    </row>
-    <row r="202" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="202" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>44431</v>
       </c>
@@ -5517,9 +5316,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>116.44</v>
       </c>
-      <c r="H202"/>
-    </row>
-    <row r="203" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="203" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>44434</v>
       </c>
@@ -5542,9 +5340,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>72.570000000000007</v>
       </c>
-      <c r="H203"/>
-    </row>
-    <row r="204" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="204" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>44437</v>
       </c>
@@ -5567,9 +5364,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>296.48</v>
       </c>
-      <c r="H204"/>
-    </row>
-    <row r="205" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="205" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>44440</v>
       </c>
@@ -5592,9 +5388,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>44.25</v>
       </c>
-      <c r="H205"/>
-    </row>
-    <row r="206" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="206" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>44443</v>
       </c>
@@ -5617,9 +5412,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>81.899999999999991</v>
       </c>
-      <c r="H206"/>
-    </row>
-    <row r="207" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="207" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>44446</v>
       </c>
@@ -5642,9 +5436,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>93.5</v>
       </c>
-      <c r="H207"/>
-    </row>
-    <row r="208" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="208" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>44449</v>
       </c>
@@ -5667,9 +5460,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>224.35999999999999</v>
       </c>
-      <c r="H208"/>
-    </row>
-    <row r="209" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="209" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>44452</v>
       </c>
@@ -5692,9 +5484,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>53.1</v>
       </c>
-      <c r="H209"/>
-    </row>
-    <row r="210" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="210" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>44455</v>
       </c>
@@ -5717,9 +5508,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>33.6</v>
       </c>
-      <c r="H210"/>
-    </row>
-    <row r="211" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="211" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>44458</v>
       </c>
@@ -5742,9 +5532,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>86.73</v>
       </c>
-      <c r="H211"/>
-    </row>
-    <row r="212" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="212" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>44461</v>
       </c>
@@ -5767,9 +5556,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>87.2</v>
       </c>
-      <c r="H212"/>
-    </row>
-    <row r="213" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="213" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>44464</v>
       </c>
@@ -5792,9 +5580,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>54.87</v>
       </c>
-      <c r="H213"/>
-    </row>
-    <row r="214" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="214" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>44467</v>
       </c>
@@ -5817,9 +5604,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>66.149999999999991</v>
       </c>
-      <c r="H214"/>
-    </row>
-    <row r="215" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="215" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>44470</v>
       </c>
@@ -5842,9 +5628,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>80.410000000000011</v>
       </c>
-      <c r="H215"/>
-    </row>
-    <row r="216" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="216" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>44473</v>
       </c>
@@ -5867,9 +5652,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>133.47999999999999</v>
       </c>
-      <c r="H216"/>
-    </row>
-    <row r="217" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="217" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>44476</v>
       </c>
@@ -5892,9 +5676,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>381.5</v>
       </c>
-      <c r="H217"/>
-    </row>
-    <row r="218" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="218" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>44479</v>
       </c>
@@ -5917,9 +5700,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>43.010000000000005</v>
       </c>
-      <c r="H218"/>
-    </row>
-    <row r="219" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="219" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>44482</v>
       </c>
@@ -5942,9 +5724,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>70.8</v>
       </c>
-      <c r="H219"/>
-    </row>
-    <row r="220" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="220" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>44485</v>
       </c>
@@ -5967,9 +5748,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>189.66000000000003</v>
       </c>
-      <c r="H220"/>
-    </row>
-    <row r="221" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="221" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>44488</v>
       </c>
@@ -5992,9 +5772,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>76.11</v>
       </c>
-      <c r="H221"/>
-    </row>
-    <row r="222" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="222" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>44491</v>
       </c>
@@ -6017,9 +5796,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>104.7</v>
       </c>
-      <c r="H222"/>
-    </row>
-    <row r="223" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="223" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>44494</v>
       </c>
@@ -6042,9 +5820,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>61.95</v>
       </c>
-      <c r="H223"/>
-    </row>
-    <row r="224" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="224" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>44497</v>
       </c>
@@ -6067,9 +5844,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>106.59</v>
       </c>
-      <c r="H224"/>
-    </row>
-    <row r="225" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="225" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>44500</v>
       </c>
@@ -6092,9 +5868,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>42</v>
       </c>
-      <c r="H225"/>
-    </row>
-    <row r="226" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="226" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>44503</v>
       </c>
@@ -6117,9 +5892,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>44.88</v>
       </c>
-      <c r="H226"/>
-    </row>
-    <row r="227" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="227" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>44506</v>
       </c>
@@ -6142,9 +5916,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>155.21</v>
       </c>
-      <c r="H227"/>
-    </row>
-    <row r="228" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="228" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>44509</v>
       </c>
@@ -6167,9 +5940,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>352.15999999999997</v>
       </c>
-      <c r="H228"/>
-    </row>
-    <row r="229" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="229" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>44512</v>
       </c>
@@ -6192,9 +5964,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>242.49</v>
       </c>
-      <c r="H229"/>
-    </row>
-    <row r="230" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="230" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>44515</v>
       </c>
@@ -6217,9 +5988,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>318.28000000000003</v>
       </c>
-      <c r="H230"/>
-    </row>
-    <row r="231" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="231" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>44518</v>
       </c>
@@ -6242,9 +6012,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>63.580000000000005</v>
       </c>
-      <c r="H231"/>
-    </row>
-    <row r="232" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="232" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>44521</v>
       </c>
@@ -6267,9 +6036,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>35.4</v>
       </c>
-      <c r="H232"/>
-    </row>
-    <row r="233" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="233" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>44524</v>
       </c>
@@ -6292,9 +6060,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>303.02000000000004</v>
       </c>
-      <c r="H233"/>
-    </row>
-    <row r="234" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="234" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>44527</v>
       </c>
@@ -6317,9 +6084,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>394.57000000000005</v>
       </c>
-      <c r="H234"/>
-    </row>
-    <row r="235" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="235" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>44530</v>
       </c>
@@ -6342,9 +6108,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>69.800000000000011</v>
       </c>
-      <c r="H235"/>
-    </row>
-    <row r="236" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="236" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>44533</v>
       </c>
@@ -6367,9 +6132,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>78.540000000000006</v>
       </c>
-      <c r="H236"/>
-    </row>
-    <row r="237" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="237" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>44536</v>
       </c>
@@ -6392,9 +6156,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>284</v>
       </c>
-      <c r="H237"/>
-    </row>
-    <row r="238" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="238" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>44539</v>
       </c>
@@ -6417,9 +6180,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>67.260000000000005</v>
       </c>
-      <c r="H238"/>
-    </row>
-    <row r="239" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="239" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>44542</v>
       </c>
@@ -6442,9 +6204,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>87.25</v>
       </c>
-      <c r="H239"/>
-    </row>
-    <row r="240" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="240" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>44545</v>
       </c>
@@ -6467,9 +6228,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>179.52</v>
       </c>
-      <c r="H240"/>
-    </row>
-    <row r="241" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="241" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>44548</v>
       </c>
@@ -6492,9 +6252,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>74.12</v>
       </c>
-      <c r="H241"/>
-    </row>
-    <row r="242" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="242" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>44551</v>
       </c>
@@ -6517,9 +6276,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>458.15000000000003</v>
       </c>
-      <c r="H242"/>
-    </row>
-    <row r="243" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="243" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>44554</v>
       </c>
@@ -6542,9 +6300,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>104.7</v>
       </c>
-      <c r="H243"/>
-    </row>
-    <row r="244" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="244" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>44557</v>
       </c>
@@ -6567,9 +6324,8 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>56.1</v>
       </c>
-      <c r="H244"/>
-    </row>
-    <row r="245" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="245" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>44560</v>
       </c>
@@ -6592,7 +6348,6 @@
         <f>Sales_Data[[#This Row],[Quantity]]*Sales_Data[[#This Row],[UnitPrice]]</f>
         <v>124.96</v>
       </c>
-      <c r="H245"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
